--- a/tests/Templates/GroupTagTests_Simple_WithOutsideLink.xlsx
+++ b/tests/Templates/GroupTagTests_Simple_WithOutsideLink.xlsx
@@ -150,7 +150,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -158,13 +157,11 @@
       <color indexed="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
